--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.120919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.120919.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2031,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2525,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2867,12 +2867,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6205,12 +6205,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6437,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7163,12 +7163,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7467,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7657,12 +7657,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7809,12 +7809,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8117,12 +8117,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9221,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9449,12 +9449,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9905,12 +9905,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
